--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H2">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I2">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J2">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>58.68202401231721</v>
+        <v>75.79240944200998</v>
       </c>
       <c r="R2">
-        <v>58.68202401231721</v>
+        <v>682.1316849780898</v>
       </c>
       <c r="S2">
-        <v>0.002853877673241088</v>
+        <v>0.002924973665723742</v>
       </c>
       <c r="T2">
-        <v>0.002853877673241088</v>
+        <v>0.002924973665723743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H3">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I3">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J3">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>9293.783431943357</v>
+        <v>63.569504673228</v>
       </c>
       <c r="R3">
-        <v>9293.783431943357</v>
+        <v>572.125542059052</v>
       </c>
       <c r="S3">
-        <v>0.4519837460070209</v>
+        <v>0.002453268453677532</v>
       </c>
       <c r="T3">
-        <v>0.4519837460070209</v>
+        <v>0.002453268453677534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H4">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I4">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J4">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>242.748408824595</v>
+        <v>10882.8674711967</v>
       </c>
       <c r="R4">
-        <v>242.748408824595</v>
+        <v>97945.8072407703</v>
       </c>
       <c r="S4">
-        <v>0.01180556185338631</v>
+        <v>0.4199906164108314</v>
       </c>
       <c r="T4">
-        <v>0.01180556185338631</v>
+        <v>0.4199906164108315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.763767480216</v>
+        <v>198.977211</v>
       </c>
       <c r="H5">
-        <v>195.763767480216</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I5">
-        <v>0.4946141974629212</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J5">
-        <v>0.4946141974629212</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>62.19947727118206</v>
+        <v>399.630208071042</v>
       </c>
       <c r="R5">
-        <v>62.19947727118206</v>
+        <v>3596.671872639377</v>
       </c>
       <c r="S5">
-        <v>0.003024941665853826</v>
+        <v>0.01542249208385238</v>
       </c>
       <c r="T5">
-        <v>0.003024941665853826</v>
+        <v>0.01542249208385238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H6">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>9850.861163498965</v>
+        <v>74.95344094636998</v>
       </c>
       <c r="R6">
-        <v>9850.861163498965</v>
+        <v>674.5809685173299</v>
       </c>
       <c r="S6">
-        <v>0.479076057956122</v>
+        <v>0.002892596271019112</v>
       </c>
       <c r="T6">
-        <v>0.479076057956122</v>
+        <v>0.002892596271019114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H7">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>257.2989666159402</v>
+        <v>62.86583510925823</v>
       </c>
       <c r="R7">
-        <v>257.2989666159402</v>
+        <v>565.7925159833241</v>
       </c>
       <c r="S7">
-        <v>0.01251319784094543</v>
+        <v>0.002426112502849004</v>
       </c>
       <c r="T7">
-        <v>0.01251319784094543</v>
+        <v>0.002426112502849005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.3339728328425</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H8">
-        <v>15.3339728328425</v>
+        <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J8">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>4.872020532551809</v>
+        <v>10762.40180692006</v>
       </c>
       <c r="R8">
-        <v>4.872020532551809</v>
+        <v>96861.61626228048</v>
       </c>
       <c r="S8">
-        <v>0.0002369405427887647</v>
+        <v>0.415341616620124</v>
       </c>
       <c r="T8">
-        <v>0.0002369405427887647</v>
+        <v>0.4153416166201241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.3339728328425</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H9">
-        <v>15.3339728328425</v>
+        <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J9">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>771.6077362296467</v>
+        <v>395.206583634954</v>
       </c>
       <c r="R9">
-        <v>771.6077362296467</v>
+        <v>3556.859252714586</v>
       </c>
       <c r="S9">
-        <v>0.03752553065422007</v>
+        <v>0.01525177597813853</v>
       </c>
       <c r="T9">
-        <v>0.03752553065422007</v>
+        <v>0.01525177597813854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.158424</v>
+      </c>
+      <c r="H10">
+        <v>0.475272</v>
+      </c>
+      <c r="I10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.14273</v>
+      </c>
+      <c r="O10">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P10">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q10">
+        <v>0.06034528583999999</v>
+      </c>
+      <c r="R10">
+        <v>0.54310757256</v>
+      </c>
+      <c r="S10">
+        <v>2.328839698223623E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.328839698223624E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.158424</v>
+      </c>
+      <c r="H11">
+        <v>0.475272</v>
+      </c>
+      <c r="I11">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J11">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P11">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q11">
+        <v>0.050613510752</v>
+      </c>
+      <c r="R11">
+        <v>0.4555215967680001</v>
+      </c>
+      <c r="S11">
+        <v>1.953271932761232E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.953271932761233E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.158424</v>
+      </c>
+      <c r="H12">
+        <v>0.475272</v>
+      </c>
+      <c r="I12">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J12">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N12">
+        <v>164.082119</v>
+      </c>
+      <c r="O12">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P12">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q12">
+        <v>8.664848540152001</v>
+      </c>
+      <c r="R12">
+        <v>77.983636861368</v>
+      </c>
+      <c r="S12">
+        <v>0.0003343930346589769</v>
+      </c>
+      <c r="T12">
+        <v>0.000334393034658977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.158424</v>
+      </c>
+      <c r="H13">
+        <v>0.475272</v>
+      </c>
+      <c r="I13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.008422</v>
+      </c>
+      <c r="N13">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P13">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q13">
+        <v>0.318182246928</v>
+      </c>
+      <c r="R13">
+        <v>2.863640222352</v>
+      </c>
+      <c r="S13">
+        <v>1.22792598891751E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.22792598891751E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H14">
+        <v>166.496266</v>
+      </c>
+      <c r="I14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>21.14003089402</v>
+      </c>
+      <c r="R14">
+        <v>190.26027804618</v>
+      </c>
+      <c r="S14">
+        <v>0.00081583411997088</v>
+      </c>
+      <c r="T14">
+        <v>0.0008158341199708803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H15">
+        <v>166.496266</v>
+      </c>
+      <c r="I15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>17.73081635223378</v>
+      </c>
+      <c r="R15">
+        <v>159.577347170104</v>
+      </c>
+      <c r="S15">
+        <v>0.0006842660272167269</v>
+      </c>
+      <c r="T15">
+        <v>0.0006842660272167271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="H10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="I10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="J10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="N10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="O10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="P10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="Q10">
-        <v>20.15396114812718</v>
-      </c>
-      <c r="R10">
-        <v>20.15396114812718</v>
-      </c>
-      <c r="S10">
-        <v>0.0009801458064216705</v>
-      </c>
-      <c r="T10">
-        <v>0.0009801458064216705</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H16">
+        <v>166.496266</v>
+      </c>
+      <c r="I16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>3035.451125651962</v>
+      </c>
+      <c r="R16">
+        <v>27319.06013086765</v>
+      </c>
+      <c r="S16">
+        <v>0.1171438495159156</v>
+      </c>
+      <c r="T16">
+        <v>0.1171438495159156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H17">
+        <v>166.496266</v>
+      </c>
+      <c r="I17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>111.464921184084</v>
+      </c>
+      <c r="R17">
+        <v>1003.184290656756</v>
+      </c>
+      <c r="S17">
+        <v>0.004301643944501734</v>
+      </c>
+      <c r="T17">
+        <v>0.004301643944501735</v>
       </c>
     </row>
   </sheetData>
